--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/64_Osmaniye_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/64_Osmaniye_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA7AD8DA-E386-4ACB-B002-62F6E19C968C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C78A1B-3C08-4C33-819F-60F55B9AF44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" xr2:uid="{299859FD-CE56-4FC6-87CE-001C4D510188}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" xr2:uid="{702298DE-B811-4981-88CC-209BDCFDBBF1}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -791,14 +791,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{47958412-DCBD-45EC-AEC7-6FAF959595CE}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{A61C2000-9719-44E9-9B3C-0EFF3A14138C}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{BDCBA488-B136-44A1-BD96-A6CF5957FCF4}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{EE067A8A-8E9A-4376-A6A2-8250B9019CAD}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{83193A7D-3D81-4962-8293-1D9E3223EB22}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{68AC1ED7-BF77-4F5F-873F-D46A55F9F313}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{88C31A0C-F3C2-41E8-BA30-966D3AA05419}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{DA3BF1D0-6B37-4B1E-BDE9-DFEB0C1D5E4B}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A769B800-491B-46B6-A4E4-9AFBDE99DA90}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D10FD800-6695-421D-AB66-0CE97E83070E}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{C8971831-4EB1-469E-8B33-9C7042650633}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{A5CCDD41-C76A-4ACC-8594-EF5A41AF457A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{5A2AA20E-7696-4542-907B-A44BA8C699CF}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A92035AB-C8CA-405D-AB48-13244ACA011B}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{A5162B34-EBAE-4FF8-8670-D673592DBCE8}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{76E311C2-B2EB-4347-AF91-DC57C4F13E9E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1168,7 +1168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C298DF78-8F2C-415E-A039-21817D3DD13B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD3A498-8A85-4A52-B231-56B24DBA7537}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2409,7 +2409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1DCB40-020A-4128-A9D7-10235291CD17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883425E0-CE06-4C98-9BDB-D0C2C8C627E4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3660,7 +3660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1190E906-ECAF-4433-9083-064826DDD51E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889B68FE-8A34-49E2-A029-5C63470ADF4C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4917,7 +4917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD9494B-E8D9-44D3-BFAE-98F8115F9DE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47C2211-BFB4-45F3-B9A0-253BC8D20C3E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6174,7 +6174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91000F8C-D9F9-467A-94CE-A2DECFCFB5A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0459EA3-1BF2-41A2-B488-587959996AE3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7419,7 +7419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A93D705-EC8B-468C-8B50-B37B263414E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92D4297-5E30-45EE-B4ED-DF006FBCC846}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
